--- a/заказы/статистика филиалы/2023/12,23/26,12,23 КИ/дв 26,12,23 бррсч.xlsx
+++ b/заказы/статистика филиалы/2023/12,23/26,12,23 КИ/дв 26,12,23 бррсч.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\26,12,23 филиалы КИ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\12,23\26,12,23 КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD37F73-1F03-46FE-8C13-2913834EDDC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E1799A-0212-44C9-B117-657625D6E80B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TDSheet!$A$3:$W$108</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="133">
   <si>
     <t>Период: 19.12.2023 - 26.12.2023</t>
   </si>
@@ -451,6 +451,8 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
@@ -651,7 +653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -726,6 +728,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -8433,11 +8438,11 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:X108"/>
+  <dimension ref="A1:W108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y14" sqref="Y14"/>
+      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -8455,30 +8460,30 @@
     <col min="23" max="16384" width="10.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:24" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:24" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+    <row r="3" spans="1:23" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
       <c r="G3" s="10" t="s">
         <v>104</v>
       </c>
@@ -8529,9 +8534,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
+    <row r="4" spans="1:23" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="36"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
@@ -8557,7 +8562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="9"/>
       <c r="C5" s="4"/>
@@ -8617,7 +8622,7 @@
         <v>13603.05</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -8689,7 +8694,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
@@ -8750,9 +8755,8 @@
         <f t="shared" ref="W7:W70" si="6">N7*G7</f>
         <v>0</v>
       </c>
-      <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>123</v>
       </c>
@@ -8805,9 +8809,8 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X8" s="13"/>
     </row>
-    <row r="9" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -8875,7 +8878,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -8947,7 +8950,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>125</v>
       </c>
@@ -9009,7 +9012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
@@ -9075,7 +9078,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -9147,7 +9150,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -9215,7 +9218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -9285,7 +9288,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -14844,7 +14847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
         <v>94</v>
       </c>
@@ -14907,7 +14910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>95</v>
       </c>
@@ -14975,7 +14978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
         <v>96</v>
       </c>
@@ -15045,7 +15048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
         <v>97</v>
       </c>
@@ -15103,7 +15106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
         <v>98</v>
       </c>
@@ -15171,7 +15174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
         <v>130</v>
       </c>
@@ -15229,7 +15232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
         <v>99</v>
       </c>
@@ -15299,7 +15302,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="104" spans="1:24" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
         <v>100</v>
       </c>
@@ -15358,7 +15361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
         <v>101</v>
       </c>
@@ -15422,7 +15425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
         <v>102</v>
       </c>
@@ -15484,7 +15487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:24" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="25" t="s">
         <v>103</v>
       </c>
@@ -15540,9 +15543,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:24" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:23" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="26" t="s">
         <v>121</v>
+      </c>
+      <c r="B108" s="34" t="s">
+        <v>9</v>
       </c>
       <c r="G108" s="10">
         <v>1</v>
@@ -15573,7 +15579,6 @@
         <f t="shared" si="11"/>
         <v>10</v>
       </c>
-      <c r="X108" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:W108" xr:uid="{4E55AD8D-536D-4C41-9099-467A496DF7F2}">
